--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail3 Features.xlsx
@@ -5017,7 +5017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5028,29 +5028,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5071,115 +5069,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5196,72 +5184,66 @@
         <v>6.666095322087484e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3397331721043162</v>
+        <v>2.464819263209414e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.6645433950525308</v>
+        <v>1.291691235141665e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.464819263209414e-06</v>
+        <v>-0.04128774811402349</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.291691235141665e-05</v>
+        <v>0.1002704262239783</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04128774811402349</v>
+        <v>0.01175797764812106</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1002704262239783</v>
+        <v>1.866650557807775</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01175797764812106</v>
+        <v>2.10761915250261</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.862501871318711</v>
+        <v>4.222892244706371</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.10761915250261</v>
+        <v>5.999315411318319e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.222892244706371</v>
+        <v>116379089.0101177</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.999315411318319e-15</v>
+        <v>1.020462746441965e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>116379089.0101177</v>
+        <v>81.25528202061696</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.020462746441965e-06</v>
+        <v>0.0001191472364025443</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>81.25528202061696</v>
+        <v>7.716254936899764</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001191472364025443</v>
+        <v>1.540483462970245</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.716254936899764</v>
+        <v>0.007094096782210324</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.540483462970245</v>
+        <v>3.227770453623886</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007094096782210324</v>
+        <v>0.9610748460067129</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.227770453623886</v>
+        <v>1.477091552357664</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9610748460067129</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.477091552357664</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.7991557088636216</v>
       </c>
     </row>
@@ -5276,72 +5258,66 @@
         <v>6.791110264979578e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3540452960127114</v>
+        <v>2.486259890074215e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.6439498871368041</v>
+        <v>1.288820903457642e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.486259890074215e-06</v>
+        <v>-0.04430066527418749</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.288820903457642e-05</v>
+        <v>0.09341425538316248</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04430066527418749</v>
+        <v>0.01068490623183575</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.09341425538316248</v>
+        <v>1.880599657844647</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01068490623183575</v>
+        <v>1.915242034217073</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.884682876247791</v>
+        <v>4.963221269018277</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.915242034217073</v>
+        <v>3.921844536598585e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.963221269018277</v>
+        <v>179222477.0235933</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.921844536598585e-15</v>
+        <v>6.642838279309747e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>179222477.0235933</v>
+        <v>125.9723771800948</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.642838279309747e-07</v>
+        <v>0.0001174807031406312</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>125.9723771800948</v>
+        <v>8.516362860728581</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001174807031406312</v>
+        <v>1.239745823897509</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.516362860728581</v>
+        <v>0.008520691703095679</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.239745823897509</v>
+        <v>3.319534121616148</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008520691703095679</v>
+        <v>0.9595106862167119</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.319534121616148</v>
+        <v>1.458629304447003</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9595106862167119</v>
+        <v>33</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.458629304447003</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.8977697756758487</v>
       </c>
     </row>
@@ -5356,72 +5332,66 @@
         <v>6.878571932048701e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.378334086359132</v>
+        <v>2.496541747961862e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5951795193241525</v>
+        <v>1.285649705819873e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.496541747961862e-06</v>
+        <v>-0.04844798616072024</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.285649705819873e-05</v>
+        <v>0.0829402607534359</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04844798616072024</v>
+        <v>0.009221674702103591</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.0829402607534359</v>
+        <v>1.895973489777132</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.009221674702103591</v>
+        <v>2.321509073767893</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.9115794435711</v>
+        <v>4.822718343888734</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.321509073767893</v>
+        <v>3.706594290173387e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.822718343888734</v>
+        <v>190353178.9031395</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.706594290173387e-15</v>
+        <v>6.287883729766661e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>190353178.9031395</v>
+        <v>134.3059707627484</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.287883729766661e-07</v>
+        <v>0.0001411215797183048</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>134.3059707627484</v>
+        <v>11.22666441800239</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001411215797183048</v>
+        <v>1.081598692784935</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.22666441800239</v>
+        <v>0.01778668081137686</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.081598692784935</v>
+        <v>3.31726082677166</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01778668081137686</v>
+        <v>0.9609627099227289</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.31726082677166</v>
+        <v>1.344749005853558</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9609627099227289</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.344749005853558</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.326139783907997</v>
       </c>
     </row>
@@ -5436,72 +5406,66 @@
         <v>6.910736911054009e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.40641015566553</v>
+        <v>2.497015674360161e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5189906102236517</v>
+        <v>1.28216136802165e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.497015674360161e-06</v>
+        <v>-0.05257961310580068</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.28216136802165e-05</v>
+        <v>0.07201372402966565</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05257961310580068</v>
+        <v>0.007946575405074307</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07201372402966565</v>
+        <v>1.899038476308286</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.007946575405074307</v>
+        <v>2.13076465904752</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.913470830255585</v>
+        <v>4.866430185906889</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.13076465904752</v>
+        <v>4.843750533807338e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.866430185906889</v>
+        <v>145038053.1456928</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.843750533807338e-15</v>
+        <v>8.248769712635138e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>145038053.1456928</v>
+        <v>101.8933147712342</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.248769712635138e-07</v>
+        <v>0.0001929026607784938</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>101.8933147712342</v>
+        <v>13.67209134894221</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001929026607784938</v>
+        <v>1.041033040523015</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.67209134894221</v>
+        <v>0.03605853855850048</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.041033040523015</v>
+        <v>3.246645113663995</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03605853855850048</v>
+        <v>0.9617933198467025</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.246645113663995</v>
+        <v>1.385308216351056</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9617933198467025</v>
+        <v>28</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.385308216351056</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.884803905414079</v>
       </c>
     </row>
@@ -5516,72 +5480,66 @@
         <v>6.874767458395416e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4288959932529264</v>
+        <v>2.497015674360161e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.432100294754111</v>
+        <v>1.278403342170277e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.497015674360161e-06</v>
+        <v>-0.05615384226349102</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.278403342170277e-05</v>
+        <v>0.06338897398498411</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05615384226349102</v>
+        <v>0.007169496720950428</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06338897398498411</v>
+        <v>1.886344971724001</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.007169496720950428</v>
+        <v>1.905504536702644</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.898772009573332</v>
+        <v>4.793049394304816</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.905504536702644</v>
+        <v>5.214663305556565e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.793049394304816</v>
+        <v>135566637.2317238</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.214663305556565e-15</v>
+        <v>8.769837397629081e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>135566637.2317238</v>
+        <v>95.83671509869662</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.769837397629081e-07</v>
+        <v>0.0002192820092626246</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>95.83671509869662</v>
+        <v>13.85667552973519</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002192820092626246</v>
+        <v>1.050720688724043</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.85667552973519</v>
+        <v>0.0421037809065559</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.050720688724043</v>
+        <v>3.121034450602805</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0421037809065559</v>
+        <v>0.9610404322716668</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.121034450602805</v>
+        <v>1.260315793441107</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9610404322716668</v>
+        <v>26</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.260315793441107</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.085184557564909</v>
       </c>
     </row>
@@ -5596,72 +5554,66 @@
         <v>6.771362899956242e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4367315838268872</v>
+        <v>2.497015674360161e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3606143921715312</v>
+        <v>1.274465929317436e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.497015674360161e-06</v>
+        <v>-0.05917695324487474</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.274465929317436e-05</v>
+        <v>0.05928185297787812</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05917695324487474</v>
+        <v>0.007015770067327067</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.05928185297787812</v>
+        <v>1.850769895740758</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007015770067327067</v>
+        <v>1.933013142715082</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.842005804652353</v>
+        <v>5.53609600694592</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.933013142715082</v>
+        <v>1.045020169796003e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.53609600694592</v>
+        <v>70047249.80609339</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.045020169796003e-14</v>
+        <v>1.688863612388962e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>70047249.80609339</v>
+        <v>51.27513945108223</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.688863612388962e-06</v>
+        <v>0.0002736590760623458</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>51.27513945108223</v>
+        <v>9.845310926698566</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002736590760623458</v>
+        <v>1.83120009094024</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.845310926698566</v>
+        <v>0.02652581453720783</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.83120009094024</v>
+        <v>2.995776313543817</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02652581453720783</v>
+        <v>0.9591013879927445</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.995776313543817</v>
+        <v>1.610423654297429</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9591013879927445</v>
+        <v>26</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.610423654297429</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.980233970188873</v>
       </c>
     </row>
@@ -5676,72 +5628,66 @@
         <v>6.614679340334059e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4198900793773838</v>
+        <v>2.497015674360161e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.3333396171834035</v>
+        <v>1.27039631684922e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.497015674360161e-06</v>
+        <v>-0.06227958387933496</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.27039631684922e-05</v>
+        <v>0.0580829999390483</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06227958387933496</v>
+        <v>0.007252726247677771</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.0580829999390483</v>
+        <v>1.838882392455666</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.007252726247677771</v>
+        <v>1.869928537576113</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.825800693797698</v>
+        <v>4.387307417363603</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.869928537576113</v>
+        <v>1.663932736308501e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.387307417363603</v>
+        <v>43181193.49451818</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.663932736308501e-14</v>
+        <v>2.732382164586637e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>43181193.49451818</v>
+        <v>31.02594723840889</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.732382164586637e-06</v>
+        <v>0.0002115935641199876</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>31.02594723840889</v>
+        <v>9.290058771579895</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002115935641199876</v>
+        <v>1.880158897854854</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.290058771579895</v>
+        <v>0.01826162317298282</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.880158897854854</v>
+        <v>3.071845149750026</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01826162317298282</v>
+        <v>0.9574997976588867</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.071845149750026</v>
+        <v>1.562910705740925</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9574997976588867</v>
+        <v>26</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.562910705740925</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3614531332570691</v>
       </c>
     </row>
@@ -5756,72 +5702,66 @@
         <v>6.427769627433217e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3748396326737135</v>
+        <v>2.497116247492897e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3682821416411923</v>
+        <v>1.26625093997709e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.497116247492897e-06</v>
+        <v>-0.06474637881741396</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.26625093997709e-05</v>
+        <v>0.05940563005139434</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06474637881741396</v>
+        <v>0.007721311159069365</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.05940563005139434</v>
+        <v>1.833958736517036</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.007721311159069365</v>
+        <v>1.818277094365835</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.810085364953327</v>
+        <v>4.247246747041086</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.818277094365835</v>
+        <v>1.775484617891243e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.247246747041086</v>
+        <v>40883202.15870328</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.775484617891243e-14</v>
+        <v>2.88884521310772e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>40883202.15870328</v>
+        <v>29.67609296175864</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.88884521310772e-06</v>
+        <v>0.0001356619461932679</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>29.67609296175864</v>
+        <v>9.251975257952168</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001356619461932679</v>
+        <v>1.289405653336242</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.251975257952168</v>
+        <v>0.01161253319621956</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.289405653336242</v>
+        <v>3.139263668940491</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01161253319621956</v>
+        <v>0.9586429611836166</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.139263668940491</v>
+        <v>1.629316074166922</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9586429611836166</v>
+        <v>7</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.629316074166922</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2705664566074624</v>
       </c>
     </row>
@@ -5836,72 +5776,66 @@
         <v>6.227176383782203e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3011509922729929</v>
+        <v>2.50530352593955e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.476882091099442</v>
+        <v>1.262079436110108e-05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.50530352593955e-06</v>
+        <v>-0.06705458852831388</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.262079436110108e-05</v>
+        <v>0.06127626139904985</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06705458852831388</v>
+        <v>0.00825084927126175</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.06127626139904985</v>
+        <v>1.834057266007196</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00825084927126175</v>
+        <v>1.828118700285111</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.807294834799099</v>
+        <v>4.222000628485353</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.828118700285111</v>
+        <v>1.79678168318614e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.222000628485353</v>
+        <v>40415847.36782706</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.79678168318614e-14</v>
+        <v>2.926919639654306e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>40415847.36782706</v>
+        <v>29.34936363498426</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.926919639654306e-06</v>
+        <v>0.0001291603342090658</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>29.34936363498426</v>
+        <v>9.363729563059572</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001291603342090658</v>
+        <v>1.186910069524771</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.363729563059572</v>
+        <v>0.01132470465385859</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.186910069524771</v>
+        <v>2.945712810927849</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01132470465385859</v>
+        <v>0.9578013607003467</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.945712810927849</v>
+        <v>1.637312157024764</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9578013607003467</v>
+        <v>7</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.637312157024764</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2437369408878619</v>
       </c>
     </row>
@@ -5916,72 +5850,66 @@
         <v>6.028387334464332e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2032119135300239</v>
+        <v>2.454915816483967e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.656943574440489</v>
+        <v>1.257934828288171e-05</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.454915816483967e-06</v>
+        <v>-0.0678819644404873</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.257934828288171e-05</v>
+        <v>0.06199269613122851</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0678819644404873</v>
+        <v>0.008447941949505933</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06199269613122851</v>
+        <v>1.839996132398248</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.008447941949505933</v>
+        <v>1.809606751720251</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.812346219552249</v>
+        <v>4.21074278831237</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.809606751720251</v>
+        <v>1.806402276350094e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.21074278831237</v>
+        <v>39613515.37531292</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.806402276350094e-14</v>
+        <v>2.988913372144835e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>39613515.37531292</v>
+        <v>28.34661728662997</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.988913372144835e-06</v>
+        <v>0.0001287591352116886</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>28.34661728662997</v>
+        <v>8.846691509758488</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001287591352116886</v>
+        <v>1.235233101294439</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.846691509758488</v>
+        <v>0.01007719860636918</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.235233101294439</v>
+        <v>2.93019682923459</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01007719860636918</v>
+        <v>0.9578945171540476</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.93019682923459</v>
+        <v>1.618223885568389</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9578945171540476</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.618223885568389</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.230641162551228</v>
       </c>
     </row>
@@ -5996,72 +5924,66 @@
         <v>5.862429952156732e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1076548815132711</v>
+        <v>2.347914797869151e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8408323316165345</v>
+        <v>1.253928836832702e-05</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.347914797869151e-06</v>
+        <v>-0.06676487590954018</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.253928836832702e-05</v>
+        <v>0.05855028270836805</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06676487590954018</v>
+        <v>0.007880870497243167</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05855028270836805</v>
+        <v>1.838667265244015</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007880870497243167</v>
+        <v>1.80732237724182</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.811587635039522</v>
+        <v>4.214603624722898</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.80732237724182</v>
+        <v>1.803094240818327e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.214603624722898</v>
+        <v>39810471.05042484</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.803094240818327e-14</v>
+        <v>2.973110214802405e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>39810471.05042484</v>
+        <v>28.57676470063359</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.973110214802405e-06</v>
+        <v>0.0001254439467597653</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>28.57676470063359</v>
+        <v>7.610805102908084</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001254439467597653</v>
+        <v>1.28012703687047</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.610805102908084</v>
+        <v>0.007266259618715865</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.28012703687047</v>
+        <v>3.089767824639387</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007266259618715865</v>
+        <v>0.9569022379308065</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.089767824639387</v>
+        <v>1.650372333216533</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9569022379308065</v>
+        <v>26</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.650372333216533</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.219990229741113</v>
       </c>
     </row>
@@ -6076,72 +5998,66 @@
         <v>5.742146038364754e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.03228030873904882</v>
+        <v>2.239382418175961e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9829237066338798</v>
+        <v>1.250108383277666e-05</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.239382418175961e-06</v>
+        <v>-0.06501136407074505</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.250108383277666e-05</v>
+        <v>0.05372801245372976</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06501136407074505</v>
+        <v>0.0071092511661274</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05372801245372976</v>
+        <v>1.84279786944909</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0071092511661274</v>
+        <v>1.804236905674658</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.812925452159275</v>
+        <v>4.219988385557129</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.804236905674658</v>
+        <v>1.798495632571899e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.219988385557129</v>
+        <v>40245794.17979682</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.798495632571899e-14</v>
+        <v>2.952378152694926e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>40245794.17979682</v>
+        <v>29.13066448540987</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.952378152694926e-06</v>
+        <v>0.0001366279587242763</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>29.13066448540987</v>
+        <v>7.269516613215396</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001366279587242763</v>
+        <v>1.742251889038115</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.269516613215396</v>
+        <v>0.007220223589647192</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.742251889038115</v>
+        <v>3.163874729729406</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.007220223589647192</v>
+        <v>0.9579495750033948</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.163874729729406</v>
+        <v>1.66301831883314</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9579495750033948</v>
+        <v>26</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.66301831883314</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2057986744749851</v>
       </c>
     </row>
@@ -6156,72 +6072,66 @@
         <v>5.661276519901854e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.02278431759437264</v>
+        <v>2.156793846136987e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.08433899603581</v>
+        <v>1.246449629089302e-05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.156793846136987e-06</v>
+        <v>-0.06350475339163426</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.246449629089302e-05</v>
+        <v>0.05040780016522914</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06350475339163426</v>
+        <v>0.006571547339383917</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.05040780016522914</v>
+        <v>1.849008621822205</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.006571547339383917</v>
+        <v>1.799764359670436</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.814623546661519</v>
+        <v>4.231457893574852</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.799764359670436</v>
+        <v>1.788759081083635e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.231457893574852</v>
+        <v>41345287.76641639</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.788759081083635e-14</v>
+        <v>2.881338594745845e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>41345287.76641639</v>
+        <v>30.57763481149928</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.881338594745845e-06</v>
+        <v>0.0001362583189973904</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>30.57763481149928</v>
+        <v>8.727693396644444</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001362583189973904</v>
+        <v>1.362544803433446</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.727693396644444</v>
+        <v>0.01037915479344652</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.362544803433446</v>
+        <v>3.099184810373105</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01037915479344652</v>
+        <v>0.9585312389552149</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.099184810373105</v>
+        <v>1.608708409659102</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9585312389552149</v>
+        <v>36</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.608708409659102</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2086058529282035</v>
       </c>
     </row>
@@ -6236,72 +6146,66 @@
         <v>5.607058785912412e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.06518896599671514</v>
+        <v>2.112794217246764e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.162237798205071</v>
+        <v>1.242897418281586e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.112794217246764e-06</v>
+        <v>-0.06280604867606018</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.242897418281586e-05</v>
+        <v>0.04942572070024968</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06280604867606018</v>
+        <v>0.006386735532676852</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04942572070024968</v>
+        <v>1.844832100289514</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.006386735532676852</v>
+        <v>1.777358754238815</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.80846904490041</v>
+        <v>4.247457453449182</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.777358754238815</v>
+        <v>1.77530846700036e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.247457453449182</v>
+        <v>40073044.5805921</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.77530846700036e-14</v>
+        <v>2.965025987377486e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>40073044.5805921</v>
+        <v>28.50877152369485</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.965025987377486e-06</v>
+        <v>0.0001315760197022855</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>28.50877152369485</v>
+        <v>9.72195781375706</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001315760197022855</v>
+        <v>1.156778844944426</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.72195781375706</v>
+        <v>0.01243610009425408</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.156778844944426</v>
+        <v>2.91013262377817</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01243610009425408</v>
+        <v>0.957419391676173</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.91013262377817</v>
+        <v>1.620932160389543</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.957419391676173</v>
+        <v>46</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.620932160389543</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2188684103668017</v>
       </c>
     </row>
@@ -6316,72 +6220,66 @@
         <v>5.566288077437195e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1039081388626155</v>
+        <v>2.093606459029544e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.23484758431154</v>
+        <v>1.239391702398745e-05</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.093606459029544e-06</v>
+        <v>-0.06269124850554048</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.239391702398745e-05</v>
+        <v>0.04946111962861587</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06269124850554048</v>
+        <v>0.00637586790678105</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04946111962861587</v>
+        <v>1.843341312568814</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.00637586790678105</v>
+        <v>1.76894962757061</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.810168392325328</v>
+        <v>4.274318279629488</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.76894962757061</v>
+        <v>1.75306566092006e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.274318279629488</v>
+        <v>40456413.28431223</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.75306566092006e-14</v>
+        <v>2.936826936742791e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>40456413.28431223</v>
+        <v>28.69280040463294</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.936826936742791e-06</v>
+        <v>0.0001282742458807731</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>28.69280040463294</v>
+        <v>8.850513020995823</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001282742458807731</v>
+        <v>1.196432387929287</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.850513020995823</v>
+        <v>0.01004792444740749</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.196432387929287</v>
+        <v>2.965482564061571</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01004792444740749</v>
+        <v>0.9573183275373292</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.965482564061571</v>
+        <v>1.648012599333481</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9573183275373292</v>
+        <v>46</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.648012599333481</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2197944872308581</v>
       </c>
     </row>
@@ -6396,72 +6294,66 @@
         <v>5.537564562283483e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1379417131874282</v>
+        <v>2.050416622790983e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.301908277371456</v>
+        <v>1.235933841380196e-05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.050416622790983e-06</v>
+        <v>-0.0617196373126036</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.235933841380196e-05</v>
+        <v>0.04849566574410858</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0617196373126036</v>
+        <v>0.006159480331414796</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04849566574410858</v>
+        <v>1.847884488650203</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.006159480331414796</v>
+        <v>1.752963628536134</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.811777001614921</v>
+        <v>4.32131146663403</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.752963628536134</v>
+        <v>1.715144673082527e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.32131146663403</v>
+        <v>41460479.13742705</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.715144673082527e-14</v>
+        <v>2.867889890647533e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>41460479.13742705</v>
+        <v>29.48284520354247</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.867889890647533e-06</v>
+        <v>0.0001253102603275959</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>29.48284520354247</v>
+        <v>7.731879447763052</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001253102603275959</v>
+        <v>1.259139644356985</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.731879447763052</v>
+        <v>0.007491292944772823</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.259139644356985</v>
+        <v>3.074922396682588</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007491292944772823</v>
+        <v>0.9577847251489746</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.074922396682588</v>
+        <v>1.643941810206484</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9577847251489746</v>
+        <v>46</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.643941810206484</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2265075594656733</v>
       </c>
     </row>
@@ -6476,72 +6368,66 @@
         <v>5.527653856463212e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1593932470003517</v>
+        <v>1.987823560456518e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.350528694294434</v>
+        <v>1.232567956568141e-05</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.987823560456518e-06</v>
+        <v>-0.05994353721416727</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.232567956568141e-05</v>
+        <v>0.04620016653738392</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05994353721416727</v>
+        <v>0.005725855522242803</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04620016653738392</v>
+        <v>1.847308025387424</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.005725855522242803</v>
+        <v>1.739231236104718</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.810194812958434</v>
+        <v>4.415998482881368</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.739231236104718</v>
+        <v>1.642381588503153e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.415998482881368</v>
+        <v>43137771.78608558</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.642381588503153e-14</v>
+        <v>2.75360415276204e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>43137771.78608558</v>
+        <v>30.56254281953948</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.75360415276204e-06</v>
+        <v>0.000127436027315634</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>30.56254281953948</v>
+        <v>7.075669004967113</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000127436027315634</v>
+        <v>1.469424995126579</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.075669004967113</v>
+        <v>0.006380096414831352</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.469424995126579</v>
+        <v>3.147504732821746</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.006380096414831352</v>
+        <v>0.9581880515177322</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.147504732821746</v>
+        <v>1.637497670619115</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9581880515177322</v>
+        <v>52</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.637497670619115</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2432864021232927</v>
       </c>
     </row>
@@ -6556,72 +6442,66 @@
         <v>5.537209753494993e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1667273352236999</v>
+        <v>1.92985889561885e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.379075720015711</v>
+        <v>1.229304822637212e-05</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.92985889561885e-06</v>
+        <v>-0.05809387918828402</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.229304822637212e-05</v>
+        <v>0.0439803952349386</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05809387918828402</v>
+        <v>0.0053078565538214</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.0439803952349386</v>
+        <v>1.845026601948402</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.0053078565538214</v>
+        <v>1.705118523472424</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.810147587529624</v>
+        <v>4.60815107045753</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.705118523472424</v>
+        <v>1.508267879753464e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.60815107045753</v>
+        <v>46543908.01559252</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.508267879753464e-14</v>
+        <v>2.551868139779808e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>46543908.01559252</v>
+        <v>32.67414060418556</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.551868139779808e-06</v>
+        <v>0.0001371032952664592</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>32.67414060418556</v>
+        <v>8.146704432258803</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001371032952664592</v>
+        <v>1.484948623150791</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.146704432258803</v>
+        <v>0.009099380237770693</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.484948623150791</v>
+        <v>3.117649100432847</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009099380237770693</v>
+        <v>0.957900616230185</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.117649100432847</v>
+        <v>1.669871297057613</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.957900616230185</v>
+        <v>52</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.669871297057613</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3001478438786703</v>
       </c>
     </row>
@@ -6636,72 +6516,66 @@
         <v>5.561793054661973e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1629020669552533</v>
+        <v>1.884755830608824e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.393272507194859</v>
+        <v>1.226127729736675e-05</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.884755830608824e-06</v>
+        <v>-0.05648353822738524</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.226127729736675e-05</v>
+        <v>0.04249934028063625</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05648353822738524</v>
+        <v>0.004995801825352265</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.04249934028063625</v>
+        <v>1.848715636207179</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004995801825352265</v>
+        <v>1.664949108650868</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.813019119363899</v>
+        <v>4.978670576618495</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.664949108650868</v>
+        <v>1.292126746515049e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.978670576618495</v>
+        <v>54521535.58565885</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.292126746515049e-14</v>
+        <v>2.178871907463995e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>54521535.58565885</v>
+        <v>38.40973179079991</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.178871907463995e-06</v>
+        <v>0.0001687123352805563</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>38.40973179079991</v>
+        <v>12.73010195882439</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001687123352805563</v>
+        <v>1.051636105469565</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>12.73010195882439</v>
+        <v>0.02734076115531166</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.051636105469565</v>
+        <v>2.766605758576206</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02734076115531166</v>
+        <v>0.9580264888388565</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.766605758576206</v>
+        <v>1.646684770600161</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9580264888388565</v>
+        <v>52</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.646684770600161</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.4704550767726989</v>
       </c>
     </row>
@@ -6716,72 +6590,66 @@
         <v>5.595884429976361e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1510839043559812</v>
+        <v>1.8527157056535e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.398860021858128</v>
+        <v>1.223015211421855e-05</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.8527157056535e-06</v>
+        <v>-0.05518262430917867</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.223015211421855e-05</v>
+        <v>0.04168291744686779</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05518262430917867</v>
+        <v>0.004782314403369532</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.04168291744686779</v>
+        <v>1.884721863212206</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004782314403369532</v>
+        <v>1.953909993309011</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.871106659654286</v>
+        <v>3.991797075490376</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.953909993309011</v>
+        <v>1.107833119838837e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.991797075490376</v>
+        <v>63258030.00430915</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.107833119838837e-14</v>
+        <v>1.890901551917376e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>63258030.00430915</v>
+        <v>44.33081038867264</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.890901551917376e-06</v>
+        <v>0.000241216889037565</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>44.33081038867264</v>
+        <v>12.85314009083578</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000241216889037565</v>
+        <v>1.202773749191137</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.85314009083578</v>
+        <v>0.0398498044221724</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.202773749191137</v>
+        <v>2.654335136788921</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0398498044221724</v>
+        <v>0.9588784012079955</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.654335136788921</v>
+        <v>1.533586257625652</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9588784012079955</v>
+        <v>51</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.533586257625652</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.6097362771415664</v>
       </c>
     </row>
@@ -6796,72 +6664,66 @@
         <v>5.633203030379106e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.1341018224590183</v>
+        <v>1.838643321563291e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.400580497952397</v>
+        <v>1.219942024230006e-05</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.838643321563291e-06</v>
+        <v>-0.05439717390609285</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.219942024230006e-05</v>
+        <v>0.04137072782136877</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05439717390609285</v>
+        <v>0.004670760811427714</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.04137072782136877</v>
+        <v>1.918489456334693</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004670760811427714</v>
+        <v>1.75745657696435</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.916528559234711</v>
+        <v>5.113768753270191</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.75745657696435</v>
+        <v>7.028876017326052e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.113768753270191</v>
+        <v>96787486.13343364</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>7.028876017326052e-15</v>
+        <v>1.24658220881424e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>96787486.13343364</v>
+        <v>65.8452275638369</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.24658220881424e-06</v>
+        <v>0.0002407073373419572</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>65.8452275638369</v>
+        <v>10.98337180727296</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002407073373419572</v>
+        <v>1.53789363035156</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.98337180727296</v>
+        <v>0.02903759875726875</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.53789363035156</v>
+        <v>3.074167564395454</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02903759875726875</v>
+        <v>0.9590670314552068</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.074167564395454</v>
+        <v>1.404770044041024</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9590670314552068</v>
+        <v>51</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.404770044041024</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.205977160026092</v>
       </c>
     </row>
@@ -6876,72 +6738,66 @@
         <v>5.666474247524102e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.1146897516307875</v>
+        <v>1.837707775754971e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.402597735334803</v>
+        <v>1.216878005498218e-05</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.837707775754971e-06</v>
+        <v>-0.05404910073111392</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.216878005498218e-05</v>
+        <v>0.04114239301847363</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05404910073111392</v>
+        <v>0.004614251689961028</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.04114239301847363</v>
+        <v>1.931194348724039</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004614251689961028</v>
+        <v>1.985534971559028</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.94287506923881</v>
+        <v>6.118595604112318</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.985534971559028</v>
+        <v>1.887613413149647e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>6.118595604112318</v>
+        <v>359877478.5243438</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.887613413149647e-15</v>
+        <v>3.359692191985748e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>359877478.5243438</v>
+        <v>244.4682099899155</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.359692191985748e-07</v>
+        <v>0.0001442370215004847</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>244.4682099899155</v>
+        <v>10.64264686033092</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001442370215004847</v>
+        <v>1.494669458393766</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.64264686033092</v>
+        <v>0.01633714069709682</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.494669458393766</v>
+        <v>4.124717853586882</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01633714069709682</v>
+        <v>0.9605172427797736</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.124717853586882</v>
+        <v>1.254679515938667</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9605172427797736</v>
+        <v>51</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.254679515938667</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>3.117321379438042</v>
       </c>
     </row>
@@ -6956,72 +6812,66 @@
         <v>5.692697992348505e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.0930013047407674</v>
+        <v>1.823354724753803e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.406253233339738</v>
+        <v>1.213824764671167e-05</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.823354724753803e-06</v>
+        <v>-0.05338000118198118</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.213824764671167e-05</v>
+        <v>0.04117194513221129</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05338000118198118</v>
+        <v>0.004544746609543099</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.04117194513221129</v>
+        <v>1.938261306694402</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004544746609543099</v>
+        <v>2.270792290868238</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.962250458013748</v>
+        <v>5.241355999347956</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.270792290868238</v>
+        <v>1.059478689338813e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.241355999347956</v>
+        <v>633163181.3774433</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.059478689338813e-15</v>
+        <v>1.910295218700227e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>633163181.3774433</v>
+        <v>424.7403599493927</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.910295218700227e-07</v>
+        <v>0.000128344657863507</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>424.7403599493927</v>
+        <v>10.65497339599343</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.000128344657863507</v>
+        <v>1.426089823771084</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.65497339599343</v>
+        <v>0.01457077110867938</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.426089823771084</v>
+        <v>4.501561846551514</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01457077110867938</v>
+        <v>0.960480221876436</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.501561846551514</v>
+        <v>0.9957753792861144</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.960480221876436</v>
+        <v>51</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.9957753792861144</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>4.228006789703193</v>
       </c>
     </row>
@@ -7398,7 +7248,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.596441872224448</v>
+        <v>1.547139344066531</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.66970801799215</v>
@@ -7487,7 +7337,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.612947050250227</v>
+        <v>1.560550402820513</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.348586130586123</v>
@@ -7576,7 +7426,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.623123514703791</v>
+        <v>1.564432780192845</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.461903398734119</v>
@@ -7665,7 +7515,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.638853231419803</v>
+        <v>1.570145400396713</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.964482856190062</v>
@@ -7754,7 +7604,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.649910316821811</v>
+        <v>1.583789558330025</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.0079741478177</v>
@@ -7843,7 +7693,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.650971245809743</v>
+        <v>1.587747382634479</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.004662064005661</v>
@@ -7932,7 +7782,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660591347859068</v>
+        <v>1.593138317843199</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.0736339636896</v>
@@ -8021,7 +7871,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.678877449649051</v>
+        <v>1.609030959426164</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.967506389333638</v>
@@ -8110,7 +7960,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.702560298372439</v>
+        <v>1.622469439746731</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.092685326823877</v>
@@ -8199,7 +8049,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.72817818753834</v>
+        <v>1.633964217128671</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.755684698836679</v>
@@ -8288,7 +8138,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.728854888687761</v>
+        <v>1.62293628866779</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.051183324297344</v>
@@ -8377,7 +8227,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.724210866043409</v>
+        <v>1.607672841441435</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.891425267714319</v>
@@ -8466,7 +8316,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.714476729307615</v>
+        <v>1.593702237631355</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.133322112546732</v>
@@ -8555,7 +8405,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.729388121576583</v>
+        <v>1.599214500445681</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.017739945059256</v>
@@ -8644,7 +8494,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.728752904702673</v>
+        <v>1.59555619009364</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.853783471269236</v>
@@ -8733,7 +8583,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.738478339618516</v>
+        <v>1.609065830827102</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.481186446761141</v>
@@ -8822,7 +8672,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.736131576880033</v>
+        <v>1.608644959637581</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.29639437148936</v>
@@ -8911,7 +8761,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.740671989951995</v>
+        <v>1.612773441440734</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.904056503034218</v>
@@ -9000,7 +8850,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.752346009354198</v>
+        <v>1.623179503034737</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.801085514308291</v>
@@ -9089,7 +8939,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.755024623756614</v>
+        <v>1.620820852326968</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.603148701308985</v>
@@ -9178,7 +9028,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.753332472460401</v>
+        <v>1.615752447155409</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.295974487125224</v>
@@ -9267,7 +9117,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.757681469751797</v>
+        <v>1.625289776581235</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.503281839089149</v>
@@ -9356,7 +9206,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.761726590937414</v>
+        <v>1.633930077153361</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.649660611172887</v>
@@ -9445,7 +9295,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.759411440786525</v>
+        <v>1.640591042575168</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.612975214014362</v>
@@ -9534,7 +9384,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.760141491344144</v>
+        <v>1.643660213480211</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.488577303423905</v>
@@ -9623,7 +9473,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.774349701756881</v>
+        <v>1.662676708024279</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.442992421546467</v>
@@ -9712,7 +9562,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.782986297054629</v>
+        <v>1.681531939663826</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.830905726166584</v>
@@ -9801,7 +9651,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.786127968430099</v>
+        <v>1.693221451393829</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.636939556778127</v>
@@ -9890,7 +9740,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.77605087667736</v>
+        <v>1.688483604526454</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.556841567313419</v>
@@ -9979,7 +9829,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.771939421414926</v>
+        <v>1.689185874313523</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.251473595805837</v>
@@ -10068,7 +9918,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.75623418338491</v>
+        <v>1.664023103685105</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.387767444124556</v>
@@ -10157,7 +10007,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.72607464951445</v>
+        <v>1.639836958141366</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.332830073874268</v>
@@ -10246,7 +10096,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.670362187645229</v>
+        <v>1.601690890176939</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.167711507256801</v>
@@ -10335,7 +10185,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.665987079424797</v>
+        <v>1.599571673785002</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.864788239902647</v>
@@ -10424,7 +10274,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647943381660175</v>
+        <v>1.588778060957716</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.143294040407268</v>
@@ -10513,7 +10363,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.624807520473767</v>
+        <v>1.570954782984007</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.96527723710033</v>
@@ -10602,7 +10452,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.60394788793857</v>
+        <v>1.547866840201093</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.974793581943718</v>
@@ -10691,7 +10541,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.581649417743597</v>
+        <v>1.52694377953322</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.766169569309277</v>
@@ -10780,7 +10630,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.565487343086162</v>
+        <v>1.509651180228448</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.744056116645138</v>
@@ -10869,7 +10719,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.565844164399161</v>
+        <v>1.51527310988377</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.009270812618649</v>
@@ -10958,7 +10808,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.548413267925383</v>
+        <v>1.501149828018045</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.768238513574297</v>
@@ -11047,7 +10897,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.5317644501059</v>
+        <v>1.492755878894025</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.080870471251587</v>
@@ -11136,7 +10986,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.51631851686384</v>
+        <v>1.483263075441072</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.723707799822788</v>
@@ -11225,7 +11075,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.513061504053248</v>
+        <v>1.477186059656237</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.019759369030111</v>
@@ -11314,7 +11164,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.4976440334851</v>
+        <v>1.465085293916521</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.586912893885794</v>
@@ -11403,7 +11253,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.496035965705497</v>
+        <v>1.468349771093673</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.615279570932666</v>
@@ -11492,7 +11342,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.511657715299421</v>
+        <v>1.477617046191454</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.518666476538089</v>
@@ -11581,7 +11431,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530470307646346</v>
+        <v>1.491832451398889</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.977351417166166</v>
@@ -11670,7 +11520,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.526873646646752</v>
+        <v>1.48467953182491</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.008927696834724</v>
@@ -11759,7 +11609,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.52989246398416</v>
+        <v>1.487296048937672</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.878663060606771</v>
@@ -11848,7 +11698,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.539209681927584</v>
+        <v>1.488557137425282</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.465785542084483</v>
@@ -11937,7 +11787,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.553977285007327</v>
+        <v>1.50209255301305</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.533472294415789</v>
@@ -12026,7 +11876,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.550593691687413</v>
+        <v>1.491102213180034</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.761712548103222</v>
@@ -12115,7 +11965,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.552862668225875</v>
+        <v>1.495988961427208</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.806184944399859</v>
@@ -12204,7 +12054,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.563135756428334</v>
+        <v>1.494086829263684</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.578714182047976</v>
@@ -12293,7 +12143,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.553642734320293</v>
+        <v>1.483119901991004</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.912833029552029</v>
@@ -12382,7 +12232,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.565546608913678</v>
+        <v>1.492597523116906</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.985755843928275</v>
@@ -12471,7 +12321,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.572737914048148</v>
+        <v>1.491431279343386</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.206249265463504</v>
@@ -12560,7 +12410,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.572085622787913</v>
+        <v>1.485106165896041</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.571895717919787</v>
@@ -12649,7 +12499,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.576709274787641</v>
+        <v>1.48969403776132</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.767816320745117</v>
@@ -12738,7 +12588,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.578327601052718</v>
+        <v>1.492365835954157</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.683570017776501</v>
@@ -12827,7 +12677,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.581371835638911</v>
+        <v>1.488817320855469</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.815327667310691</v>
@@ -12916,7 +12766,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.594027661523323</v>
+        <v>1.500363061461728</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.785527874742182</v>
@@ -13005,7 +12855,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.557222757885554</v>
+        <v>1.469142544350059</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.616481423830194</v>
@@ -13094,7 +12944,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.554713521163059</v>
+        <v>1.459537388976668</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.62721851911913</v>
@@ -13183,7 +13033,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.56581180852073</v>
+        <v>1.462449763268659</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.587692129740041</v>
@@ -13272,7 +13122,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.568580967238463</v>
+        <v>1.462537929910019</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.586950651408145</v>
@@ -13361,7 +13211,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.584700472463361</v>
+        <v>1.479847973002498</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.439736679670632</v>
@@ -13647,7 +13497,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.743408288232134</v>
+        <v>1.706814289899059</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.349855598726506</v>
@@ -13736,7 +13586,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.760882844624694</v>
+        <v>1.724286180732591</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.083749029239715</v>
@@ -13825,7 +13675,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.772126621419276</v>
+        <v>1.722724286752256</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.475801938112157</v>
@@ -13914,7 +13764,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.774840149491875</v>
+        <v>1.716875223678509</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.628885101717856</v>
@@ -14003,7 +13853,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.780923878053444</v>
+        <v>1.721942610475184</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.08801178186126</v>
@@ -14092,7 +13942,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.77963226577252</v>
+        <v>1.718184936250835</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.775574503267673</v>
@@ -14181,7 +14031,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.791444512457555</v>
+        <v>1.731260794917106</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.088472477238887</v>
@@ -14270,7 +14120,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.789774535482479</v>
+        <v>1.727997584136179</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.639478663533574</v>
@@ -14359,7 +14209,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.797073549907339</v>
+        <v>1.729862951942577</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.96544454606116</v>
@@ -14448,7 +14298,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.817529230221858</v>
+        <v>1.74179140535238</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.712996688999704</v>
@@ -14537,7 +14387,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.818813001719765</v>
+        <v>1.737214239643903</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.228683862691685</v>
@@ -14626,7 +14476,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.806579031455477</v>
+        <v>1.716779933823381</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.102549316627312</v>
@@ -14715,7 +14565,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.814320075345424</v>
+        <v>1.725501978453744</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.320843798729358</v>
@@ -14804,7 +14654,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.815499138635426</v>
+        <v>1.725720485199443</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.025984761004061</v>
@@ -14893,7 +14743,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.827577694594724</v>
+        <v>1.738070106475866</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.417296551547948</v>
@@ -14982,7 +14832,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.836576870524541</v>
+        <v>1.749232379672597</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.071093303282305</v>
@@ -15071,7 +14921,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.83955145258307</v>
+        <v>1.754888818548065</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.196053723600433</v>
@@ -15160,7 +15010,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.855574936319896</v>
+        <v>1.78223132217095</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.382030570224607</v>
@@ -15249,7 +15099,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.866600304340037</v>
+        <v>1.792260073386614</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.417166598399052</v>
@@ -15338,7 +15188,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.870711959983164</v>
+        <v>1.794959432946481</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.524234044007745</v>
@@ -15427,7 +15277,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.877231476927129</v>
+        <v>1.803431088714038</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.294126463691036</v>
@@ -15516,7 +15366,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.883126371784563</v>
+        <v>1.813847231890924</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.794820793995914</v>
@@ -15605,7 +15455,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.89302725766837</v>
+        <v>1.827188672454781</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.712771561845494</v>
@@ -15694,7 +15544,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.899538040636599</v>
+        <v>1.840069134786428</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.27266502991389</v>
@@ -15783,7 +15633,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.900772634013117</v>
+        <v>1.844480981778444</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.076079337445199</v>
@@ -15872,7 +15722,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.904112897129695</v>
+        <v>1.84885918347263</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.822179616663163</v>
@@ -15961,7 +15811,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.921287518052599</v>
+        <v>1.878282341982647</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.506360671151413</v>
@@ -16050,7 +15900,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.920359338169963</v>
+        <v>1.880681253433071</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.221258357041166</v>
@@ -16139,7 +15989,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.912435417143746</v>
+        <v>1.875385827054153</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.549686562759981</v>
@@ -16228,7 +16078,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.902266139504269</v>
+        <v>1.866027368424767</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.349289182223481</v>
@@ -16317,7 +16167,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.895004547529153</v>
+        <v>1.852486475561678</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.825409617076792</v>
@@ -16406,7 +16256,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.884810939946359</v>
+        <v>1.834862992286481</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.391182578624837</v>
@@ -16495,7 +16345,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.844903367765318</v>
+        <v>1.803267481516583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.723517225706571</v>
@@ -16584,7 +16434,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.828582862273503</v>
+        <v>1.794572112445015</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.586346271280864</v>
@@ -16673,7 +16523,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.826160032797295</v>
+        <v>1.792046248386988</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.342010372812027</v>
@@ -16762,7 +16612,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.805680054705478</v>
+        <v>1.774008763375537</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.572013747322071</v>
@@ -16851,7 +16701,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.796526834190435</v>
+        <v>1.763026977277444</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.613095050842559</v>
@@ -16940,7 +16790,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.785441911481446</v>
+        <v>1.750542548050636</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.421466540164913</v>
@@ -17029,7 +16879,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.76979748495839</v>
+        <v>1.730548136150616</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.207604904298331</v>
@@ -17118,7 +16968,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.763731492132171</v>
+        <v>1.724073124435375</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.33718121457999</v>
@@ -17207,7 +17057,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.752260701875317</v>
+        <v>1.712444769455818</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.254475910323092</v>
@@ -17296,7 +17146,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.732570323325632</v>
+        <v>1.685927308731964</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.054927577374261</v>
@@ -17385,7 +17235,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.716077090892514</v>
+        <v>1.667346631493211</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.258573234988987</v>
@@ -17474,7 +17324,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.712752759309557</v>
+        <v>1.657317485999552</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.963392463451016</v>
@@ -17563,7 +17413,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.702940748268977</v>
+        <v>1.647718571727211</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.035453108276318</v>
@@ -17652,7 +17502,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.69978956975266</v>
+        <v>1.64269556944778</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.186655649601079</v>
@@ -17741,7 +17591,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.698075188155896</v>
+        <v>1.636612848004578</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.032967649221412</v>
@@ -17830,7 +17680,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.700285512035836</v>
+        <v>1.634565376250112</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.016602427338927</v>
@@ -17919,7 +17769,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.697691621069356</v>
+        <v>1.615605453745318</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.525495583599105</v>
@@ -18008,7 +17858,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.676382275459952</v>
+        <v>1.584951164210739</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.069754037737099</v>
@@ -18097,7 +17947,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.67266646513789</v>
+        <v>1.570404373692634</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.098390493098364</v>
@@ -18186,7 +18036,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.664815575356101</v>
+        <v>1.558519075291058</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.085404321699375</v>
@@ -18275,7 +18125,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.663550646301617</v>
+        <v>1.549808540560428</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.139581232569801</v>
@@ -18364,7 +18214,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.663831784463528</v>
+        <v>1.546398524106036</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.065422151864344</v>
@@ -18453,7 +18303,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.664714143433101</v>
+        <v>1.547061902440982</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.990936821431214</v>
@@ -18542,7 +18392,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.67086769650642</v>
+        <v>1.553546092767691</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.308569096531889</v>
@@ -18631,7 +18481,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.678310535196959</v>
+        <v>1.559171329263741</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.162927966726269</v>
@@ -18720,7 +18570,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.674560201815031</v>
+        <v>1.547960856409967</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.141111980288615</v>
@@ -18809,7 +18659,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.674583470551741</v>
+        <v>1.540751402462849</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.860854681842853</v>
@@ -18898,7 +18748,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.670883863463</v>
+        <v>1.535757869538958</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.153993442552201</v>
@@ -18987,7 +18837,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.671859242445708</v>
+        <v>1.543533622088207</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.110117101852749</v>
@@ -19076,7 +18926,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.674646140251096</v>
+        <v>1.540548860656793</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.912816639108362</v>
@@ -19165,7 +19015,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.687138668043734</v>
+        <v>1.54286318448846</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.854295220987945</v>
@@ -19254,7 +19104,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.68318069957006</v>
+        <v>1.534591039426019</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.885875515705532</v>
@@ -19343,7 +19193,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.674477608936924</v>
+        <v>1.518802260647336</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.296766621557821</v>
@@ -19432,7 +19282,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.676523860068382</v>
+        <v>1.522146157889881</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.302860910365661</v>
@@ -19521,7 +19371,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.675413091020051</v>
+        <v>1.516403124064842</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.110950137521439</v>
@@ -19610,7 +19460,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.672226176242537</v>
+        <v>1.516919498016147</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.083640624290616</v>
@@ -19896,7 +19746,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.789839969118399</v>
+        <v>1.709946083431345</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.003643755282809</v>
@@ -19985,7 +19835,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.790938169520849</v>
+        <v>1.718538301580873</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.789589359376485</v>
@@ -20074,7 +19924,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.780976591191982</v>
+        <v>1.700217096033225</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.661709162835644</v>
@@ -20163,7 +20013,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.758155109065984</v>
+        <v>1.670577401386891</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.47482497941466</v>
@@ -20252,7 +20102,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.751175132403742</v>
+        <v>1.658384748277724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.769456753160945</v>
@@ -20341,7 +20191,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.741483953853134</v>
+        <v>1.649289412356722</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.340354046476827</v>
@@ -20430,7 +20280,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.747840545134149</v>
+        <v>1.655735669150592</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.071828787484731</v>
@@ -20519,7 +20369,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.748326211296279</v>
+        <v>1.653601153042519</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.493622955790507</v>
@@ -20608,7 +20458,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.748878729972062</v>
+        <v>1.645551865549746</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.46534883277548</v>
@@ -20697,7 +20547,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.764297890339112</v>
+        <v>1.659430771339241</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.345898358574762</v>
@@ -20786,7 +20636,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.765227493468141</v>
+        <v>1.657159340363802</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.141726586129953</v>
@@ -20875,7 +20725,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.754303342380967</v>
+        <v>1.632058403398309</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.447104396603156</v>
@@ -20964,7 +20814,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.742577778719074</v>
+        <v>1.611096094785417</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.093125389785361</v>
@@ -21053,7 +20903,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.755758431753428</v>
+        <v>1.625216373354652</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.125021593360725</v>
@@ -21142,7 +20992,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.751261381946617</v>
+        <v>1.608244007212791</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.448118073248521</v>
@@ -21231,7 +21081,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.745982833823358</v>
+        <v>1.602502008129523</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.809189592243436</v>
@@ -21320,7 +21170,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.752186143783275</v>
+        <v>1.609683274065072</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.737396410083292</v>
@@ -21409,7 +21259,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.754055918741484</v>
+        <v>1.609250753342496</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.039446331907574</v>
@@ -21498,7 +21348,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.755434697624163</v>
+        <v>1.612317472167273</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.717282194213446</v>
@@ -21587,7 +21437,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.753656983082794</v>
+        <v>1.609065054326974</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.469274257111107</v>
@@ -21676,7 +21526,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.756603688539055</v>
+        <v>1.617483859606043</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.198397583741381</v>
@@ -21765,7 +21615,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.75337808128964</v>
+        <v>1.616816039286519</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.114611699738512</v>
@@ -21854,7 +21704,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.757536961508034</v>
+        <v>1.626315875606517</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.405488465104466</v>
@@ -21943,7 +21793,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.756659903971418</v>
+        <v>1.634694077021102</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.079247276931042</v>
@@ -22032,7 +21882,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.754372734069126</v>
+        <v>1.624974722776744</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.087306657298522</v>
@@ -22121,7 +21971,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.755810832892515</v>
+        <v>1.627184300609227</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.535412796110889</v>
@@ -22210,7 +22060,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.756255112376425</v>
+        <v>1.641513289783494</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.944150795209634</v>
@@ -22299,7 +22149,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.764426146721473</v>
+        <v>1.658888544276734</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.83345168285796</v>
@@ -22388,7 +22238,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.756146151320191</v>
+        <v>1.644777674621149</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.000957885753238</v>
@@ -22477,7 +22327,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.758157269891122</v>
+        <v>1.652048445654156</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.888979879185123</v>
@@ -22566,7 +22416,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.74278994911177</v>
+        <v>1.628055710174151</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.018416778851014</v>
@@ -22655,7 +22505,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.732242665856003</v>
+        <v>1.623657863493894</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.025162284880558</v>
@@ -22744,7 +22594,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.722572435486223</v>
+        <v>1.622503930203555</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.660963148998343</v>
@@ -22833,7 +22683,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.748776234848465</v>
+        <v>1.6581753071499</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.777562625080458</v>
@@ -22922,7 +22772,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.775358264075575</v>
+        <v>1.696263149875115</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.286667367440338</v>
@@ -23011,7 +22861,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.773399803045065</v>
+        <v>1.699049212581853</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.149190142622447</v>
@@ -23100,7 +22950,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.78026018523136</v>
+        <v>1.705821107780528</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.126772281250326</v>
@@ -23189,7 +23039,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.774727215709758</v>
+        <v>1.700776312713159</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.091487198673016</v>
@@ -23278,7 +23128,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.772423201514017</v>
+        <v>1.698340728541014</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.923011274344735</v>
@@ -23367,7 +23217,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.771998739164157</v>
+        <v>1.707889266392709</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.342167096065864</v>
@@ -23456,7 +23306,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.768299479954268</v>
+        <v>1.705302428808365</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.913326067669286</v>
@@ -23545,7 +23395,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.773446842969175</v>
+        <v>1.711387543406994</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.322150352147462</v>
@@ -23634,7 +23484,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.766386467985083</v>
+        <v>1.705879321176116</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.9052965714004</v>
@@ -23723,7 +23573,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.764682443208133</v>
+        <v>1.703697325347093</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.272901711273631</v>
@@ -23812,7 +23662,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.759934045740259</v>
+        <v>1.700098965951958</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.92645356873654</v>
@@ -23901,7 +23751,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.770538863736293</v>
+        <v>1.713815361809428</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.962398841694931</v>
@@ -23990,7 +23840,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.772522548741755</v>
+        <v>1.710122185824737</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.078725581343283</v>
@@ -24079,7 +23929,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.773821504965093</v>
+        <v>1.708360901315543</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.909760516066618</v>
@@ -24168,7 +24018,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.74333016960295</v>
+        <v>1.668354135673068</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.400268618822896</v>
@@ -24257,7 +24107,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.708618377086167</v>
+        <v>1.615468577907381</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.729944632425693</v>
@@ -24346,7 +24196,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.686206645720185</v>
+        <v>1.579151639772323</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.11300067684147</v>
@@ -24435,7 +24285,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.677795153535351</v>
+        <v>1.56616679855847</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.444947510623047</v>
@@ -24524,7 +24374,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.673712350865811</v>
+        <v>1.55309062779362</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.387604552958509</v>
@@ -24613,7 +24463,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.674001694763998</v>
+        <v>1.553845651865903</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.259959121341637</v>
@@ -24702,7 +24552,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.674060185217229</v>
+        <v>1.548045220639843</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.173540646812074</v>
@@ -24791,7 +24641,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.672170419920959</v>
+        <v>1.542353042612258</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.493699671863895</v>
@@ -24880,7 +24730,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.673133372086771</v>
+        <v>1.545559829064758</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.229834165008709</v>
@@ -24969,7 +24819,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.677708549604659</v>
+        <v>1.548142280650848</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.329544742261226</v>
@@ -25058,7 +24908,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.677175596402393</v>
+        <v>1.529374723116317</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.602428427948618</v>
@@ -25147,7 +24997,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.678271514079201</v>
+        <v>1.533603935898003</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.75863222253084</v>
@@ -25236,7 +25086,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.679215176532663</v>
+        <v>1.544923012381676</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.339496001991735</v>
@@ -25325,7 +25175,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.674883650605564</v>
+        <v>1.533893423693089</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.149270969256329</v>
@@ -25414,7 +25264,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.685442338051207</v>
+        <v>1.540573857571283</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.680144601379282</v>
@@ -25503,7 +25353,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.687711779915519</v>
+        <v>1.53281191569717</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.73897222455205</v>
@@ -25592,7 +25442,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.679758198879422</v>
+        <v>1.515761637250024</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.247306732288154</v>
@@ -25681,7 +25531,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.688783288751976</v>
+        <v>1.522592259678934</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.47320982841821</v>
@@ -25770,7 +25620,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.692754197858695</v>
+        <v>1.521638390533706</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.524319434815183</v>
@@ -25859,7 +25709,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.696967855943365</v>
+        <v>1.526103502891153</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.407006717262119</v>
@@ -26145,7 +25995,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800262840176268</v>
+        <v>1.67699540419804</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.357537374603305</v>
@@ -26234,7 +26084,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.799097815572251</v>
+        <v>1.674195604434009</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.360464286381844</v>
@@ -26323,7 +26173,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.789487107368564</v>
+        <v>1.653055432578899</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.681495183343573</v>
@@ -26412,7 +26262,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.774633299757896</v>
+        <v>1.617782440630452</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.653427917567067</v>
@@ -26501,7 +26351,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.763108513600945</v>
+        <v>1.603588067676574</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.780460519168397</v>
@@ -26590,7 +26440,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.754208182571613</v>
+        <v>1.586729737234125</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.903095093639975</v>
@@ -26679,7 +26529,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.739957574359148</v>
+        <v>1.562173207801371</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.690070648686375</v>
@@ -26768,7 +26618,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.7362331413532</v>
+        <v>1.544881234225197</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.754445724188996</v>
@@ -26857,7 +26707,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.738855860566169</v>
+        <v>1.541258741695852</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.016019183225588</v>
@@ -26946,7 +26796,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.743365558701234</v>
+        <v>1.540816925182003</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.813788338423201</v>
@@ -27035,7 +26885,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.738353748465633</v>
+        <v>1.543897122236646</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.471980893005633</v>
@@ -27124,7 +26974,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.736612499817796</v>
+        <v>1.539055885061628</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.028650537042192</v>
@@ -27213,7 +27063,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.736959258319744</v>
+        <v>1.545067065424633</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.010463639402658</v>
@@ -27302,7 +27152,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.74195419808907</v>
+        <v>1.553263317263545</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.89659308828512</v>
@@ -27391,7 +27241,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.746888585485687</v>
+        <v>1.562752678863438</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.101505713502199</v>
@@ -27480,7 +27330,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.748367083813782</v>
+        <v>1.57714193181053</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.244222346475529</v>
@@ -27569,7 +27419,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.750014575204257</v>
+        <v>1.58643992601046</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.959069512574979</v>
@@ -27658,7 +27508,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.750135929732612</v>
+        <v>1.585907313806068</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.897020275384592</v>
@@ -27747,7 +27597,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.750732634496076</v>
+        <v>1.586051946977631</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.748136120835264</v>
@@ -27836,7 +27686,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.748634743843469</v>
+        <v>1.580440400717595</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.133248953070202</v>
@@ -27925,7 +27775,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.743258087688037</v>
+        <v>1.576232475804476</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.278437964659014</v>
@@ -28014,7 +27864,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.750628500485959</v>
+        <v>1.593809716612869</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.754735967951722</v>
@@ -28103,7 +27953,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.747535393498807</v>
+        <v>1.59287551973311</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.475949634732579</v>
@@ -28192,7 +28042,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.748997970978996</v>
+        <v>1.608841588038918</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.204897943526783</v>
@@ -28281,7 +28131,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.739452828401881</v>
+        <v>1.598391872107321</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.220415368821731</v>
@@ -28370,7 +28220,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.746431573155733</v>
+        <v>1.604275276199222</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.422047699800656</v>
@@ -28459,7 +28309,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.75193353281614</v>
+        <v>1.618288522831419</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.381313653553839</v>
@@ -28548,7 +28398,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.753358438540942</v>
+        <v>1.610533914452362</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.674155976177955</v>
@@ -28637,7 +28487,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.742177904712564</v>
+        <v>1.59236763214067</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.585428387470505</v>
@@ -28726,7 +28576,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.73300832650295</v>
+        <v>1.593094469606445</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.545572892818249</v>
@@ -28815,7 +28665,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.727948510119422</v>
+        <v>1.577878201446355</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.638710308421019</v>
@@ -28904,7 +28754,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.72275267391723</v>
+        <v>1.567317737330477</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.484692180610385</v>
@@ -28993,7 +28843,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.725196635402451</v>
+        <v>1.575651992888383</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.670089844211058</v>
@@ -29082,7 +28932,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.759216697857512</v>
+        <v>1.637430472210936</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.144792742320639</v>
@@ -29171,7 +29021,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.776630438738401</v>
+        <v>1.662489628875739</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.068351296581117</v>
@@ -29260,7 +29110,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.792188785748779</v>
+        <v>1.689175165149254</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.292410084869136</v>
@@ -29349,7 +29199,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.800939991039898</v>
+        <v>1.700532791371136</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.280207504931331</v>
@@ -29438,7 +29288,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.810032710342685</v>
+        <v>1.718769626482558</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.308186099977322</v>
@@ -29527,7 +29377,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.810385626768847</v>
+        <v>1.720595972913525</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.248534106259964</v>
@@ -29616,7 +29466,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.816153992546056</v>
+        <v>1.733721491617724</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.120777089419511</v>
@@ -29705,7 +29555,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.813931770247114</v>
+        <v>1.728126192949649</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.509412052909069</v>
@@ -29794,7 +29644,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.819570616071046</v>
+        <v>1.731326071752947</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.438703856117904</v>
@@ -29883,7 +29733,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.820542158014061</v>
+        <v>1.741941750699617</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.101164987830625</v>
@@ -29972,7 +29822,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.824377534779355</v>
+        <v>1.747338258080475</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.251274894714907</v>
@@ -30061,7 +29911,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.833666031671185</v>
+        <v>1.751676164385034</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.365330307633585</v>
@@ -30150,7 +30000,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.841880022720445</v>
+        <v>1.763678968378445</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.046562776010683</v>
@@ -30239,7 +30089,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.845500279895796</v>
+        <v>1.762679945623341</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.263397849091555</v>
@@ -30328,7 +30178,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.844113171119481</v>
+        <v>1.750821446503818</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.434722223205768</v>
@@ -30417,7 +30267,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.821718596589465</v>
+        <v>1.70988731155997</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.454934029732982</v>
@@ -30506,7 +30356,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.808330158191697</v>
+        <v>1.687096087411677</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.169071071618061</v>
@@ -30595,7 +30445,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.793202553922925</v>
+        <v>1.658716228537608</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.64237648682803</v>
@@ -30684,7 +30534,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.779854015934135</v>
+        <v>1.624277696728337</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.312138205554342</v>
@@ -30773,7 +30623,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.772390306751242</v>
+        <v>1.60539230656756</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.916278143095141</v>
@@ -30862,7 +30712,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.774295222767998</v>
+        <v>1.599144370623388</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.612994334227205</v>
@@ -30951,7 +30801,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.773452427011279</v>
+        <v>1.590874041209047</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.556822339507809</v>
@@ -31040,7 +30890,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.773129326815627</v>
+        <v>1.588637643683343</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.874738610870125</v>
@@ -31129,7 +30979,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.764918553845436</v>
+        <v>1.568286526327061</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.528146969060109</v>
@@ -31218,7 +31068,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.757080235964889</v>
+        <v>1.550947221188595</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.256602602975237</v>
@@ -31307,7 +31157,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.754826388771136</v>
+        <v>1.543025155577075</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.259259168254961</v>
@@ -31396,7 +31246,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.749926537042455</v>
+        <v>1.539535368699456</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.382524962648843</v>
@@ -31485,7 +31335,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.749621671616548</v>
+        <v>1.546156678294394</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.381541331639846</v>
@@ -31574,7 +31424,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.753834157339761</v>
+        <v>1.547704056131487</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.960550444215924</v>
@@ -31663,7 +31513,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.743349910157123</v>
+        <v>1.530481117256251</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.804373774947622</v>
@@ -31752,7 +31602,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.738243528040082</v>
+        <v>1.522090040794611</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.77764495408147</v>
@@ -31841,7 +31691,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.733371785774045</v>
+        <v>1.516102780521162</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.884440476539545</v>
@@ -31930,7 +31780,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.734571957707981</v>
+        <v>1.516460362642368</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.980120986158795</v>
@@ -32019,7 +31869,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.734290680443425</v>
+        <v>1.527220986120193</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.923731496605017</v>
@@ -32108,7 +31958,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.73066169908493</v>
+        <v>1.531826668525546</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.304026494705828</v>
@@ -32394,7 +32244,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.627592812856368</v>
+        <v>1.590784528540823</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.234326134674234</v>
@@ -32483,7 +32333,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.648383305282108</v>
+        <v>1.608436006687136</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.115894035782403</v>
@@ -32572,7 +32422,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.68771245863533</v>
+        <v>1.635259228098578</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.786446284528824</v>
@@ -32661,7 +32511,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.69550088783525</v>
+        <v>1.624820923337062</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.691952335169137</v>
@@ -32750,7 +32600,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.684381296264983</v>
+        <v>1.61734426949825</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.971346433976056</v>
@@ -32839,7 +32689,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.685627789178171</v>
+        <v>1.614555344723781</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.959319509731911</v>
@@ -32928,7 +32778,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.684763864472425</v>
+        <v>1.612904331495921</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.152699644746422</v>
@@ -33017,7 +32867,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.693994189520118</v>
+        <v>1.616367823431225</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.187256654913736</v>
@@ -33106,7 +32956,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.699341268025643</v>
+        <v>1.611866735761313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.08345309790202</v>
@@ -33195,7 +33045,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.710860976476132</v>
+        <v>1.622482912881056</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.737377858949888</v>
@@ -33284,7 +33134,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.714383030937347</v>
+        <v>1.620508414980594</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.110546625501488</v>
@@ -33373,7 +33223,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.717354245163537</v>
+        <v>1.619350683762212</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.749471905281657</v>
@@ -33462,7 +33312,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.71366274186451</v>
+        <v>1.614587163967059</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.935327235104456</v>
@@ -33551,7 +33401,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.721141946531767</v>
+        <v>1.622013844894443</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.580046007199271</v>
@@ -33640,7 +33490,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.726767557978078</v>
+        <v>1.633296361985195</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.55400619100424</v>
@@ -33729,7 +33579,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.739125064337363</v>
+        <v>1.644422353822342</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.995134695502562</v>
@@ -33818,7 +33668,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.739049674438299</v>
+        <v>1.650912669185838</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.936602403269329</v>
@@ -33907,7 +33757,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.746883708936745</v>
+        <v>1.657302933876806</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.851886093815678</v>
@@ -33996,7 +33846,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.763965218133629</v>
+        <v>1.670727139477475</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.442947047649153</v>
@@ -34085,7 +33935,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.77519866720425</v>
+        <v>1.677443843371535</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.247420159537914</v>
@@ -34174,7 +34024,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.777593441013254</v>
+        <v>1.67931990442233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.910006027412146</v>
@@ -34263,7 +34113,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.784467390307672</v>
+        <v>1.690353390516548</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.004508165779313</v>
@@ -34352,7 +34202,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.795730550102131</v>
+        <v>1.703163745526646</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.399495849410981</v>
@@ -34441,7 +34291,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.801834674728582</v>
+        <v>1.71723734334505</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.390535278591941</v>
@@ -34530,7 +34380,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.8062117170923</v>
+        <v>1.718222322775948</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.505723868842753</v>
@@ -34619,7 +34469,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.818732824899996</v>
+        <v>1.730941892594054</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.331905895579858</v>
@@ -34708,7 +34558,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.823769007229727</v>
+        <v>1.743378147812332</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.860844846773543</v>
@@ -34797,7 +34647,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.82927909617122</v>
+        <v>1.745287367736416</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.140639662355055</v>
@@ -34886,7 +34736,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.826529583446013</v>
+        <v>1.743802578945738</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.705479884865779</v>
@@ -34975,7 +34825,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.821285483428183</v>
+        <v>1.74314950444989</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.035310978227457</v>
@@ -35064,7 +34914,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.813272132728532</v>
+        <v>1.733478064315605</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.514918155736491</v>
@@ -35153,7 +35003,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.785692831205355</v>
+        <v>1.711290684660479</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.412477084566279</v>
@@ -35242,7 +35092,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.732535642700197</v>
+        <v>1.675751629446723</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.086905326364357</v>
@@ -35331,7 +35181,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.709575945126124</v>
+        <v>1.676051210984402</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.513823740055807</v>
@@ -35420,7 +35270,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.695291897175881</v>
+        <v>1.67201026825039</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.52898656566269</v>
@@ -35509,7 +35359,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.688911786827467</v>
+        <v>1.668492141240182</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.414335638533878</v>
@@ -35598,7 +35448,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.667607877074494</v>
+        <v>1.648804332810868</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.565257082243101</v>
@@ -35687,7 +35537,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.648723518166834</v>
+        <v>1.632172612491598</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.417794103941418</v>
@@ -35776,7 +35626,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.632950333582598</v>
+        <v>1.616706671441261</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.454154279701123</v>
@@ -35865,7 +35715,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.62856934697968</v>
+        <v>1.613511727409116</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.483962111057407</v>
@@ -35954,7 +35804,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.611985894869772</v>
+        <v>1.598920581236819</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.382676789479581</v>
@@ -36043,7 +35893,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.604321057649666</v>
+        <v>1.587785213701717</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.444701531680625</v>
@@ -36132,7 +35982,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.59232281347413</v>
+        <v>1.579357969492497</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.483562349528855</v>
@@ -36221,7 +36071,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.590922380044968</v>
+        <v>1.574440100203148</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.395507409767677</v>
@@ -36310,7 +36160,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.577551767833637</v>
+        <v>1.563638087582688</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.464510425892835</v>
@@ -36399,7 +36249,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.576248358230999</v>
+        <v>1.566590507915101</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.492391039612779</v>
@@ -36488,7 +36338,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.597696726688246</v>
+        <v>1.578396804203674</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.321732930422351</v>
@@ -36577,7 +36427,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.619814375060723</v>
+        <v>1.590912610618521</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.522215619795804</v>
@@ -36666,7 +36516,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615445194009173</v>
+        <v>1.573019912588403</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.82422252071811</v>
@@ -36755,7 +36605,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618989476342569</v>
+        <v>1.568530081085864</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.937068119639928</v>
@@ -36844,7 +36694,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.611640516386467</v>
+        <v>1.557190447442161</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.85029614825813</v>
@@ -36933,7 +36783,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.624515685610943</v>
+        <v>1.557960482709349</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.782367831525963</v>
@@ -37022,7 +36872,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.624703544259333</v>
+        <v>1.552873264816205</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.887929057252066</v>
@@ -37111,7 +36961,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.635639940431128</v>
+        <v>1.56402363774968</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.894411055637241</v>
@@ -37200,7 +37050,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.645960114681473</v>
+        <v>1.557817575718241</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.686216401622823</v>
@@ -37289,7 +37139,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.649094977716739</v>
+        <v>1.558096787537932</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.077871377825399</v>
@@ -37378,7 +37228,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.659735797161351</v>
+        <v>1.563179580215534</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.092829484344027</v>
@@ -37467,7 +37317,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.671189800799081</v>
+        <v>1.573313693417712</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.031956203992707</v>
@@ -37556,7 +37406,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.667526005305276</v>
+        <v>1.5738557352008</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.093158647501397</v>
@@ -37645,7 +37495,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.676139007787615</v>
+        <v>1.579072683929847</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.178624267313752</v>
@@ -37734,7 +37584,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.681642468487738</v>
+        <v>1.572857953732779</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.225475547484126</v>
@@ -37823,7 +37673,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.68504707522112</v>
+        <v>1.574490410466188</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.451131806371569</v>
@@ -37912,7 +37762,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.686005944409218</v>
+        <v>1.574727137183761</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.005670185039361</v>
@@ -38001,7 +37851,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.694007130140557</v>
+        <v>1.572027251413957</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.565867599798241</v>
@@ -38090,7 +37940,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.692464221624284</v>
+        <v>1.562413443751404</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.500123591999534</v>
@@ -38179,7 +38029,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.702187906789824</v>
+        <v>1.569178291925236</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.728575473307232</v>
@@ -38268,7 +38118,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.699383570710628</v>
+        <v>1.570649390592343</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.152285188687694</v>
@@ -38357,7 +38207,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.700819728080953</v>
+        <v>1.573428383933936</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.907909299429634</v>
@@ -38643,7 +38493,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.612057351320953</v>
+        <v>1.533775478443907</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.771858168197428</v>
@@ -38732,7 +38582,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.624578905533347</v>
+        <v>1.540245562753089</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.425275156139949</v>
@@ -38821,7 +38671,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.618304982846057</v>
+        <v>1.530171673567926</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.527923676212875</v>
@@ -38910,7 +38760,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.633084846828313</v>
+        <v>1.52681217113162</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.784391284286578</v>
@@ -38999,7 +38849,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.636293307255171</v>
+        <v>1.530791113937751</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.947501512412273</v>
@@ -39088,7 +38938,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.638013928231577</v>
+        <v>1.529793158684611</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.812857026543529</v>
@@ -39177,7 +39027,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.640811571059478</v>
+        <v>1.539140489288779</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.03511762338765</v>
@@ -39266,7 +39116,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.647425861516669</v>
+        <v>1.544013185324685</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.188010767586823</v>
@@ -39355,7 +39205,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.657087838162688</v>
+        <v>1.537933083699318</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.762161848711295</v>
@@ -39444,7 +39294,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.67559857431061</v>
+        <v>1.548614687133714</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.800978510121743</v>
@@ -39533,7 +39383,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.658307144894154</v>
+        <v>1.53236079817347</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.916848765210165</v>
@@ -39622,7 +39472,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.666837585878157</v>
+        <v>1.536452450354425</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.046433961064973</v>
@@ -39711,7 +39561,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.663701279552031</v>
+        <v>1.537171050124623</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.082269761587999</v>
@@ -39800,7 +39650,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.673036613785026</v>
+        <v>1.548576986566532</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.990420471155265</v>
@@ -39889,7 +39739,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670178701466058</v>
+        <v>1.551932641563109</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.818106847215257</v>
@@ -39978,7 +39828,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.68096849656916</v>
+        <v>1.567596095932863</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.432514734995456</v>
@@ -40067,7 +39917,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.685745769245244</v>
+        <v>1.581219641735573</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.298607160928105</v>
@@ -40156,7 +40006,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.688565407189043</v>
+        <v>1.575351495434703</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.101757424016383</v>
@@ -40245,7 +40095,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.697367847423853</v>
+        <v>1.575241360148814</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.129101005319359</v>
@@ -40334,7 +40184,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.698270635741794</v>
+        <v>1.567670354924456</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.463418631505873</v>
@@ -40423,7 +40273,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.697426636510105</v>
+        <v>1.562048589877151</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.536066762507821</v>
@@ -40512,7 +40362,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.695529280448206</v>
+        <v>1.557096712833517</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.31218586854216</v>
@@ -40601,7 +40451,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.696112833933155</v>
+        <v>1.558016152162801</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.23929248198122</v>
@@ -40690,7 +40540,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696462624221033</v>
+        <v>1.564505808308859</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.500334179206769</v>
@@ -40779,7 +40629,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.688909717722069</v>
+        <v>1.550392458376578</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.447647956329283</v>
@@ -40868,7 +40718,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.711083816213964</v>
+        <v>1.564951840285182</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.112830878742773</v>
@@ -40957,7 +40807,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.714662650502131</v>
+        <v>1.568540558053356</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.259252911876744</v>
@@ -41046,7 +40896,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.716335579963598</v>
+        <v>1.569280588122325</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.816649659795808</v>
@@ -41135,7 +40985,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.702993963367031</v>
+        <v>1.547294258360769</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.119281963487525</v>
@@ -41224,7 +41074,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.700347157276364</v>
+        <v>1.551011010239418</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.373077775259047</v>
@@ -41313,7 +41163,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.695035640547647</v>
+        <v>1.539405225614826</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.150979167801446</v>
@@ -41402,7 +41252,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.657664692021397</v>
+        <v>1.508387507201862</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.217107273274853</v>
@@ -41491,7 +41341,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.628444183007289</v>
+        <v>1.501411516362335</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.936825632833928</v>
@@ -41580,7 +41430,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.637228233782183</v>
+        <v>1.529649764486106</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.872506309285431</v>
@@ -41669,7 +41519,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.625091642293554</v>
+        <v>1.530057782070375</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.183307205340385</v>
@@ -41758,7 +41608,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.617518449514757</v>
+        <v>1.536077725032914</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.266240253753729</v>
@@ -41847,7 +41697,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.60482508306016</v>
+        <v>1.519266623092125</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.885020179092167</v>
@@ -41936,7 +41786,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.592054412196494</v>
+        <v>1.511843862764348</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.837523200495478</v>
@@ -42025,7 +41875,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.580990143519469</v>
+        <v>1.506294874970187</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.945723924938865</v>
@@ -42114,7 +41964,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.580933653816426</v>
+        <v>1.510278843163972</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.169368502974049</v>
@@ -42203,7 +42053,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.564455768926939</v>
+        <v>1.496373196571025</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.223255215005501</v>
@@ -42292,7 +42142,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.553201864091247</v>
+        <v>1.490539128353663</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.242673434704677</v>
@@ -42381,7 +42231,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.542835993952335</v>
+        <v>1.485395117981737</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.783158884511055</v>
@@ -42470,7 +42320,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.546575071168267</v>
+        <v>1.490372808419205</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.090906004574457</v>
@@ -42559,7 +42409,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.528170954132382</v>
+        <v>1.476388815370183</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.836754061993079</v>
@@ -42648,7 +42498,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528594741546338</v>
+        <v>1.484609385788537</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.600677767760695</v>
@@ -42737,7 +42587,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.54678886839283</v>
+        <v>1.495854662481615</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.648209993713173</v>
@@ -42826,7 +42676,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.559564224277384</v>
+        <v>1.499702262098476</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.036643153770018</v>
@@ -42915,7 +42765,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.541068774015176</v>
+        <v>1.471308739009927</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.967332156604117</v>
@@ -43004,7 +42854,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.536878102482653</v>
+        <v>1.462036609465705</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.957761389955718</v>
@@ -43093,7 +42943,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532740489538345</v>
+        <v>1.447412460247349</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.569453937265453</v>
@@ -43182,7 +43032,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.547227624414312</v>
+        <v>1.447743974531073</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.441622510616363</v>
@@ -43271,7 +43121,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.545634693085028</v>
+        <v>1.442710144536447</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.813641644634099</v>
@@ -43360,7 +43210,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.55013161749745</v>
+        <v>1.444888899267907</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.737577896197822</v>
@@ -43449,7 +43299,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.563625597475421</v>
+        <v>1.440012100520455</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.430082463521437</v>
@@ -43538,7 +43388,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.564347890771207</v>
+        <v>1.438453229638053</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.155927359560708</v>
@@ -43627,7 +43477,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.577253889021765</v>
+        <v>1.445729015451573</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.93384720572897</v>
@@ -43716,7 +43566,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.582840598630967</v>
+        <v>1.443229744602837</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.173539887107623</v>
@@ -43805,7 +43655,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.584182907360158</v>
+        <v>1.437067650659088</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.613736173098386</v>
@@ -43894,7 +43744,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.599979040896382</v>
+        <v>1.447975020178478</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.138373332426543</v>
@@ -43983,7 +43833,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.604028352502987</v>
+        <v>1.445720652125363</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.899625401637894</v>
@@ -44072,7 +43922,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.612219445555522</v>
+        <v>1.448557896972636</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.305073712442796</v>
@@ -44161,7 +44011,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.61224686644326</v>
+        <v>1.440064497908325</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.119866060919537</v>
@@ -44250,7 +44100,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.612586326116155</v>
+        <v>1.435654392395471</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.189068379127575</v>
@@ -44339,7 +44189,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.613539762758166</v>
+        <v>1.429584156647658</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.025841828791187</v>
@@ -44428,7 +44278,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.624095216044282</v>
+        <v>1.437610119302818</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.239313827843873</v>
@@ -44517,7 +44367,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.622352080278625</v>
+        <v>1.444968652900666</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.929323776121505</v>
@@ -44606,7 +44456,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.633473000683283</v>
+        <v>1.450018471299875</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.823364161324359</v>
